--- a/Testdata/TC_94.xlsx
+++ b/Testdata/TC_94.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0217MptElV75lqyFHUe2Qyb7gsrdlbhIX0xXdRK/LRJo0bIIITSLlqt4WoTEMIJdaZnh8l9Wk8zwxF/g1KVvtrPjDqNo0nXOd6pOnTq3qqB3b3zPuCIRo2GwX6ltWRWDBE7o0uBivxLz82rtceVdG3VvHOId4wj7hAPYAKmA7d0wul+ZcT7fM83r6+ut68ZWGF2YdcuqmU8G/bEzIz6u0oBxHDikkkq5b5eq2Kjt+gPCsYs5VpL7ld64t9Um1OkAbYADfEGirVbMaEAY6wacckqYkIwI5qTdGXxHbcyubz3eqiFzhZ4hWzH1XIUrIBVd42BZMqE+setWbadq7VatxsR6vGfV92ogt9N4PxFMgaiPGR+T6Io6kjDm2J9LcWvXaliPrXrtMTLXgmCuzAA2GnruiFxRRtw28TxWyiKmPsCmw2HX5YxpITMnqyd6uAqHEZ7PJpR7pJwao0HL8AOtSzaJjQ7CiDhgvwepdESuh5E262TeB+5kRiO+6OBF6blOGImGc2GkcqI26oQBb3ok4idzOGvigisAw+ZRTJB5DzMT6lDmwDcNYuLa59hjeaECE52G0SWbY4ccQRybYo7rwAuxCw7HKePUyRZdYaDjKJzDjLB4K/TcA5hVg9cw0pl7AZhYLNsKw8tMu3VMJE9Vni+cqY95Al+ho/EsvB4G3mIcT5kT0SlxO60EvZaHREBq6XbMeOiDFhkJKVqOsoB/EIDLZNQhDvWxd+yBEZndgFkKBNSMeXhOeTv0Yj9giU5LVHQKO5qQm3SH6RgN4XADYfQw6AUJXpl5LasoMAqv0zVXGdIIOXKTOclxrzKWwR2gJce3ypEnInZ5QD2oD/mzyFGLXjGeEcLXuoTiIJEKD0TFsVuLo9ifQnhNIcau5KoMmRkfgZ+Cr4NetgVVpCp/Jpa1J39Aj5SNuoF7Py5hIlgut5ZdA94SCcGevJaHg0ugnlI+O2ome1nDQcoC9+JXeQgid+7hhSSnVsrTUC9wvNglKiH0gnPpokI3daj3stEKqQ8xbiMcLCaLOeRlRvc4fOxXoFLvMR5BL1CxnTAOeLQQmQOZGvo2GRZPA7kA9jaWOY/I92NoQRYHceC0Q3fz1VxlnZOA8s01DONIpcPNRaT1RGaMWYeIHCOT/sbyTpk9sagU3A+IHwbU2dzaYGShvfuAjbAkqjaWICq+NsZ7UNdV2ROxvrFYBP0jFLpSyzQZCx0qnVWHh5uTN+8JmQ45x7EHvRuHEnuR5t5lMmqyy2VMnoROIi/JgLbojBm0xo7rbznQPIj2b8sJfUEwoSM9HSMzjxcdkEO6wUUfBxcx9BhpXlmmp/lX1MdJhAMmtpO2FEupeD0IJXlKtTq2Sl7DWDqCSl4hcJG5hEMT4s/DCHsDMAw90G6n+yVoRQaYz/QIaptHnMTIZiaaShU1SxR/G0wWKbUNEfA6TS4RJUjsRTXhGSajIbHLAYSl18YenUYqqyalfB0PDixrDpP8KzZXslFMzgAuYlB9v00WojvPBpouXbaWMJQDi0Rqj0ePdurbVqMOnY0YI7njEcGe0YVg5sToBVeEcR/E9owRYdSFL4q9PeM9MiUUiqA0kS5DpaXzcuggyfNSlSboW6QUAdBvXFAoI6vAlJMJ2GcER94iB1Rb7YcO4O5+/O/b3zx/9eKzu4+evvnih//9x69e/fNnt89+BB93f/3b7ce/VNtUYDTBU49IhSatnR2r8Qj8LCUhYVxTtsZu7HBJOzuTHXE6RvpiJwftbq992G/JfJISE3FVUkxxZ1yEcTYcq03IheSRmoknKIg9SfKTHhe4uRJlizvcFSmi8/z7BJUtXr/87PXLP98rrQ2W9Vq13d3taq3+1lYMbsO1FVzaivULNUCAH1Wt7Wq9ngMvYdBIFYDUTj3XbtTgwl1vWLU0l7upI68DLbP0TBN8YS7JKVJbtUepC+THCVM6/gRCJGWrUMgNtIt+8ZM3f3laQGnrakpxFlBOtjFiMTMZyKmPRhNjPDwZtbvGpDsWfpLxcjg1+deA9eppPBWcKghi7H3LgOIOxcyowI2oYoTnBsHOzFhAJObisOBs66hqoQdOuazlYRTGc3UiOYGMugaZZpO1EmtyjeRJe64knYy1Bq50vf375+sE9EY6WUObvn/kaajAUaQcX0ftp/969eWHr168uHv+89svf1CYQa+TPguAn0M05Yep20PK0/VmiYJOx9KYl9Z3c/VFE8VF6jikAWe2eOfKRghEa2I2+Rv1fCh5cmJpL6AvUdB7mHVvuA5s+wiZRQLoOcdQbcPs7pkSVA7P7Pqf3/7u7tef333y/M2Hf7r96I+3H3/y+uXv3zz7g4q6u6fP7376TGf55UIgdRE3WtUEGvJ9xDFENBqidhtfffALIwi5AS2HEcuM9NUHn+YmE4rK5iSbGVq6VJGiCivQvLCQM3KqpDoU5FIR1QC0RQlrpAhdxMI5dbJF3q+KqUTcScY3epNqzIgRQjf1TdhJEZwJbyqnRVRJPX7Hqtfqmqu0EVuYYpYz/aEXTqHJSBjyAWIJUpD6eoEMK9c77A9bzX4GUUoMI5dEwg3VB0paSlFSeiwZJa6WowAXGj8n9sSb0QpslZXOnEtjpn58OW+6Iv2tf6ooIFA7jiLVEAX6LX8cz6EZTp7o7ufLZ8tc/3uketV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxDuPamePhGmyIfAKT51gDv1crzqtK+grI1PknW4UhdHa5JNxEtgAOmnIKGZm8RQjz1R13W52VgkhSXjph7r56R2GHeIRXu4t28ykB+HVg2Xh7MuK9tjQc7Uxy109UrNkE+Qf9IWj/L/v+crZmlEEjZV4ACz9AJ9cXEdw3y2pjdqKFBQ3QFhdv5Af0IjxJyIT6C9FOUspZ6pDfSIuXOpDjs/sxrYiAMDMz24W1ExCl6s/q4Ren/q05LXQSuK7OAnYcj5XLVyvnKeI0nJEbqDBzM0ASXH6PSgb6h2lzGzKYSGXpvLi7ZLRixkvq9g7U0xcMrWqzpTUq49ca6e6S0ijWqvB/9ip1y1rW7x86skhc1ByXXIRMzmw7M+d9v8AhZ9z2ycdAAA=</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV0uJVkSxhvwJocodYFI1VZeiuHuUJpqOcvuzEriWwokSJGmKIrCKdIr+pSiQF2jTYDU7uW/BJbsPvUv9MxlbyQVa1VDhnbObc6cOXPONyP0ztU0tC5IzGnEHtYaa07NIsyPAspOH9YSMak3NmvveKh35ZPwEMd4SgQIW6DF+M4Vpw9rZ0LMdmz78vJy7bK5FsWntus4DfvJ3mDon5EprlPGBWY+qWVawdu1ah7qBNM9InCABdaaD2v9YX+tQ6jfBdoeZviUxGvthFNGOO8xQQUlXGrGBAvS6e59Ty/Mc9c21xrIXqLnku2EhoGWK0lqupGDacmITonnOq5Td7bqrjNqbO24zo67tbblrL+XKmaCaIC5GJL4gvqKMBR4OlPqzpbrNOC/u4XslUJgKw+Ahw7C4IhcUE6CDglDXikittnAli9g1dWC6SC7oGsM3d+FRzGenY2oCElV9d0oJj4E6l5z75PLg9jEbzQbAHd0RmMx7+J5ZVvHnMQHMxmNaqoe6kZMtEISi+MZbCoJYM+B4Yk4Ici+hZkrdSn34ZuyhATeBIe8qFRiosdRfM5n2Cf7cGBtaeOShREOILME5YL6+aRLDHQYRzOwCJO3ozDYBatGeAUjs9xnEGI5bTuKznPvVjGRygGVDbCnUyxS8SU6Gp5FlwcsnA+TMfdjOiZBt51Kr+QhefKMdifhIpqCFzkJaVqBMod/cNIWyahLfDrF4WEIQeReE6yUCKiViGhCRScKkynjqU8LVPQYVjQiV9kKszE6gM1lMugR67NUXod5JauscBRdZnMuM1QQCuQW99PtXmYsCneBlm7fMkftiFzlLg2hERT3okAtZ8XwjBCxMiU0B8matytbi9ee7yfTMRyvMZyxCzUrR3bOR5CnkOvgl+dAu6irn5Hj7Kgf8CNjox4LbpdLmQimK8zlNYC3QEKwprAdYnYO1MdUnO230rWs4CAdgVvll3kITu4sxHNFzqJUpKE+88MkILog9NlEpaj0TW/qrWy0RBrAGfcQZvPRfAYFmNMdAR8Pa9CSd7iIoenXPD9KmIjnsnIg24i+TYcnY6YmwOGddSYx+WECWGO+mzC/EwV3ny3Q0TlmVNzdwyiJdTm8u4qKnqyMCe8SWWNU0b+zvl9lTTyuJD5lZBox6t892hBk6X1wj4Xw9FTdWYPo83Vn+RD6um578qzfWS0GoAiNrtI0Lc4jn6pkNccjKOjbtxyZLpngJASQJqDFnma1d5GMWvx8UaZIQsdxmFZAT0JgDhjYD6ZrPoAHifPW/GgqCTZAz8dDZBflJQLySY+dDjA7TQBjZHVlkZ7VX9kfRzFmXC4ngxQLpXi1EErrlIY6ni5eB4lKBF28IuAie0EOjch0FsU43IPA0F2TdgYvARTZw+LMjKC3hcRPg2znqplW2bPU8beJqSallyEPvCmTC0QlJNei0XYuk9OQXOUeHMuwg0M6jnVVTVv5Kh5sWA4O0/orF1cRKKZ7ADcu6L7fJXMJw/OBoauUbaQMncCykHrDo/Utd8NpuoBs5BipFR8RHFo9OMyCWH12QbiYgtqOdUQ4DeCL4nDHepeMCYUmqEJk2lBl7aIe2k3rvHKlBf6WKWUBwBunFNrIsmDGyRW8E4LjcF4Q1EsdRD7I3fz439e/ef7qxec3Hz998+UH//3Hr17982fXzz6Ej5u//u36k1/qZWphNMLjkCiHRu2tLae5DnmWkZAMrq2gcZD4QtFOThQizsbI3ODUoNPrdx4N2qqeZMRUXbcUW14O51GSD4d6EWoitaV2mglaxBul9cmMS9xCi/LkZe2ClKWL/NsUdSxev/z89cs/36ptApZjrcb29ka94b4VisGFt7Ekl0GxQakHSOH1urNRd92C8IIMOtINIItTP/CaDWfbcZtOI6vlQZbIq4QWWcbSCJ/aC3qa1NHwKEuB4jhlqsQfwRHJ2PooFAYmRb/8yZu/PC1JmegaStkKOKdgjJzMTgfK9P7RyBoeHB91etaoN5R5kvMKctr4Nwib2bPzVEoqxhIcfseC5g7NzKrBjahmRROLYP/MmsNJLJzDUrKtouqJ7mly0ctHcZTM9I4UFHLqCsmsmqzUWFFrFE/Fc6no5KwV4trX679/sUrBLKSbA1rvaK9tTVmWl4qGShxNKvDNqf3sX6+++ujVixc3z39+/dWPShbMPNmzAOQ5nKbiMEt7KHmm3yxQ0OOhCua58/1CfzFEeZE6jCgT3GtsqjuUGSFQbUhr6jfqT6HlKcMqXkBfoKB3Me9dCXOwvX1klwng5wxDt43yu2dG0DU8j+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD/rU3Tx9fvPTZ6bKLzYC5Yu80WoQaKn3Ed+Sp9GSvdv6+v1fWCwSFkAOK1EV6ev3PysYk44qcJJbBkiXOVJ2YUm0qCz1rIIrmQ8lvUxFA4CObGHNTMI0sWhG/XyS9+rSlDx3ivGt/qiecGJFgKa+DSspC+fKd9UzKrqlHj5w3IZruNobuYQx5oXQPwqjMYCMlKEeIBZESlrfrJDLqvkeDQ7arUEuop04iAMSyzTUH6jPU1CZpleBAlwAe34SyneiJbFlFkq/CqXLNg8uk1YgS97q54mSBOokcaxBEDMP9cNkBgA4fZa7na+eKguYd1/j0yIKzsf9bpkP4wIXml+ZLQmKr8qRYenS1OfybUdD2H0ZmnwIvNLzJoTDvMVrdHUBWDK2Za3pxXEUryw4OScV2wP0DFXEziOeydhySo20g3yvUkJa5LIPfdszK4y6JCSi8kN1qr0XXdxbF/a+qmqfH4SBCWa160YWltxA8bVeJkpVZ1pxDLBJPu9Vfl4fUHber7Z6b9zcJg8am5MJXp801/1xsDHGW3gbb/qB+2D8AICjMipvn9KEvLnIu1u1SQAsltXze/YR3LwrWtMBVoryLgqRUgfSFPZsjHZpzMUTWaLMl6acZJQTDZ2fSP/0hxqfeM0NTQABuziZXfI6rS9C/2EnCgd0SiveV520CJWNQBrMZhpbVt1Q6Hn75AqQb8ECVOvxD6Cf6QeeKtb0qYIin+mntobJuLI5O1U+BL5MrPtp9wLAZffXVn8moeH/4YBCXvc10Wecnp6Jqvvqbm83ySZx6+7E9+vrMKhDNx7XAzzZbjjOpBlsuPJF2xiH7kDJZcVJZE+hHO4V1fXshb9ze/8DlVEs9CAfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001BC8DD-D0F1-4ED5-A299-692C74D4D78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_94.xlsx
+++ b/Testdata/TC_94.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV0uJVkSxhvwJocodYFI1VZeiuHuUJpqOcvuzEriWwokSJGmKIrCKdIr+pSiQF2jTYDU7uW/BJbsPvUv9MxlbyQVa1VDhnbObc6cOXPONyP0ztU0tC5IzGnEHtYaa07NIsyPAspOH9YSMak3NmvveKh35ZPwEMd4SgQIW6DF+M4Vpw9rZ0LMdmz78vJy7bK5FsWntus4DfvJ3mDon5EprlPGBWY+qWVawdu1ah7qBNM9InCABdaaD2v9YX+tQ6jfBdoeZviUxGvthFNGOO8xQQUlXGrGBAvS6e59Ty/Mc9c21xrIXqLnku2EhoGWK0lqupGDacmITonnOq5Td7bqrjNqbO24zo67tbblrL+XKmaCaIC5GJL4gvqKMBR4OlPqzpbrNOC/u4XslUJgKw+Ahw7C4IhcUE6CDglDXikittnAli9g1dWC6SC7oGsM3d+FRzGenY2oCElV9d0oJj4E6l5z75PLg9jEbzQbAHd0RmMx7+J5ZVvHnMQHMxmNaqoe6kZMtEISi+MZbCoJYM+B4Yk4Ici+hZkrdSn34ZuyhATeBIe8qFRiosdRfM5n2Cf7cGBtaeOShREOILME5YL6+aRLDHQYRzOwCJO3ozDYBatGeAUjs9xnEGI5bTuKznPvVjGRygGVDbCnUyxS8SU6Gp5FlwcsnA+TMfdjOiZBt51Kr+QhefKMdifhIpqCFzkJaVqBMod/cNIWyahLfDrF4WEIQeReE6yUCKiViGhCRScKkynjqU8LVPQYVjQiV9kKszE6gM1lMugR67NUXod5JauscBRdZnMuM1QQCuQW99PtXmYsCneBlm7fMkftiFzlLg2hERT3okAtZ8XwjBCxMiU0B8matytbi9ee7yfTMRyvMZyxCzUrR3bOR5CnkOvgl+dAu6irn5Hj7Kgf8CNjox4LbpdLmQimK8zlNYC3QEKwprAdYnYO1MdUnO230rWs4CAdgVvll3kITu4sxHNFzqJUpKE+88MkILog9NlEpaj0TW/qrWy0RBrAGfcQZvPRfAYFmNMdAR8Pa9CSd7iIoenXPD9KmIjnsnIg24i+TYcnY6YmwOGddSYx+WECWGO+mzC/EwV3ny3Q0TlmVNzdwyiJdTm8u4qKnqyMCe8SWWNU0b+zvl9lTTyuJD5lZBox6t892hBk6X1wj4Xw9FTdWYPo83Vn+RD6um578qzfWS0GoAiNrtI0Lc4jn6pkNccjKOjbtxyZLpngJASQJqDFnma1d5GMWvx8UaZIQsdxmFZAT0JgDhjYD6ZrPoAHifPW/GgqCTZAz8dDZBflJQLySY+dDjA7TQBjZHVlkZ7VX9kfRzFmXC4ngxQLpXi1EErrlIY6ni5eB4lKBF28IuAie0EOjch0FsU43IPA0F2TdgYvARTZw+LMjKC3hcRPg2znqplW2bPU8beJqSallyEPvCmTC0QlJNei0XYuk9OQXOUeHMuwg0M6jnVVTVv5Kh5sWA4O0/orF1cRKKZ7ADcu6L7fJXMJw/OBoauUbaQMncCykHrDo/Utd8NpuoBs5BipFR8RHFo9OMyCWH12QbiYgtqOdUQ4DeCL4nDHepeMCYUmqEJk2lBl7aIe2k3rvHKlBf6WKWUBwBunFNrIsmDGyRW8E4LjcF4Q1EsdRD7I3fz439e/ef7qxec3Hz998+UH//3Hr17982fXzz6Ej5u//u36k1/qZWphNMLjkCiHRu2tLae5DnmWkZAMrq2gcZD4QtFOThQizsbI3ODUoNPrdx4N2qqeZMRUXbcUW14O51GSD4d6EWoitaV2mglaxBul9cmMS9xCi/LkZe2ClKWL/NsUdSxev/z89cs/36ptApZjrcb29ka94b4VisGFt7Ekl0GxQakHSOH1urNRd92C8IIMOtINIItTP/CaDWfbcZtOI6vlQZbIq4QWWcbSCJ/aC3qa1NHwKEuB4jhlqsQfwRHJ2PooFAYmRb/8yZu/PC1JmegaStkKOKdgjJzMTgfK9P7RyBoeHB91etaoN5R5kvMKctr4Nwib2bPzVEoqxhIcfseC5g7NzKrBjahmRROLYP/MmsNJLJzDUrKtouqJ7mly0ctHcZTM9I4UFHLqCsmsmqzUWFFrFE/Fc6no5KwV4trX679/sUrBLKSbA1rvaK9tTVmWl4qGShxNKvDNqf3sX6+++ujVixc3z39+/dWPShbMPNmzAOQ5nKbiMEt7KHmm3yxQ0OOhCua58/1CfzFEeZE6jCgT3GtsqjuUGSFQbUhr6jfqT6HlKcMqXkBfoKB3Me9dCXOwvX1klwng5wxDt43yu2dG0DU8j+t/fvu7m19/cfPp8zcf/en64z9ef/Lp65e/f/PsD/rU3Tx9fvPTZ6bKLzYC5Yu80WoQaKn3Ed+Sp9GSvdv6+v1fWCwSFkAOK1EV6ev3PysYk44qcJJbBkiXOVJ2YUm0qCz1rIIrmQ8lvUxFA4CObGHNTMI0sWhG/XyS9+rSlDx3ivGt/qiecGJFgKa+DSspC+fKd9UzKrqlHj5w3IZruNobuYQx5oXQPwqjMYCMlKEeIBZESlrfrJDLqvkeDQ7arUEuop04iAMSyzTUH6jPU1CZpleBAlwAe34SyneiJbFlFkq/CqXLNg8uk1YgS97q54mSBOokcaxBEDMP9cNkBgA4fZa7na+eKguYd1/j0yIKzsf9bpkP4wIXml+ZLQmKr8qRYenS1OfybUdD2H0ZmnwIvNLzJoTDvMVrdHUBWDK2Za3pxXEUryw4OScV2wP0DFXEziOeydhySo20g3yvUkJa5LIPfdszK4y6JCSi8kN1qr0XXdxbF/a+qmqfH4SBCWa160YWltxA8bVeJkpVZ1pxDLBJPu9Vfl4fUHber7Z6b9zcJg8am5MJXp801/1xsDHGW3gbb/qB+2D8AICjMipvn9KEvLnIu1u1SQAsltXze/YR3LwrWtMBVoryLgqRUgfSFPZsjHZpzMUTWaLMl6acZJQTDZ2fSP/0hxqfeM0NTQABuziZXfI6rS9C/2EnCgd0SiveV520CJWNQBrMZhpbVt1Q6Hn75AqQb8ECVOvxD6Cf6QeeKtb0qYIin+mntobJuLI5O1U+BL5MrPtp9wLAZffXVn8moeH/4YBCXvc10Wecnp6Jqvvqbm83ySZx6+7E9+vrMKhDNx7XAzzZbjjOpBlsuPJF2xiH7kDJZcVJZE+hHO4V1fXshb9ze/8DlVEs9CAfAAA=</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0217MptElV75lqyFHUe2Qyb7gsrdlbhIX0xXdRK/LRJo0bIIITSLlqt4WoTEMIJdaZnh8l9Wk8zwxF/g1KVvtrPjDqNo0nXOd6pOnTq3qqB3b3zPuCIRo2GwX6ltWRWDBE7o0uBivxLz82rtceVdG3VvHOId4wj7hAPYAKmA7d0wul+ZcT7fM83r6+ut68ZWGF2YdcuqmU8G/bEzIz6u0oBxHDikkkq5b5eq2Kjt+gPCsYs5VpL7ld64t9Um1OkAbYADfEGirVbMaEAY6wacckqYkIwI5qTdGXxHbcyubz3eqiFzhZ4hWzH1XIUrIBVd42BZMqE+setWbadq7VatxsR6vGfV92ogt9N4PxFMgaiPGR+T6Io6kjDm2J9LcWvXaliPrXrtMTLXgmCuzAA2GnruiFxRRtw28TxWyiKmPsCmw2HX5YxpITMnqyd6uAqHEZ7PJpR7pJwao0HL8AOtSzaJjQ7CiDhgvwepdESuh5E262TeB+5kRiO+6OBF6blOGImGc2GkcqI26oQBb3ok4idzOGvigisAw+ZRTJB5DzMT6lDmwDcNYuLa59hjeaECE52G0SWbY4ccQRybYo7rwAuxCw7HKePUyRZdYaDjKJzDjLB4K/TcA5hVg9cw0pl7AZhYLNsKw8tMu3VMJE9Vni+cqY95Al+ho/EsvB4G3mIcT5kT0SlxO60EvZaHREBq6XbMeOiDFhkJKVqOsoB/EIDLZNQhDvWxd+yBEZndgFkKBNSMeXhOeTv0Yj9giU5LVHQKO5qQm3SH6RgN4XADYfQw6AUJXpl5LasoMAqv0zVXGdIIOXKTOclxrzKWwR2gJce3ypEnInZ5QD2oD/mzyFGLXjGeEcLXuoTiIJEKD0TFsVuLo9ifQnhNIcau5KoMmRkfgZ+Cr4NetgVVpCp/Jpa1J39Aj5SNuoF7Py5hIlgut5ZdA94SCcGevJaHg0ugnlI+O2ome1nDQcoC9+JXeQgid+7hhSSnVsrTUC9wvNglKiH0gnPpokI3daj3stEKqQ8xbiMcLCaLOeRlRvc4fOxXoFLvMR5BL1CxnTAOeLQQmQOZGvo2GRZPA7kA9jaWOY/I92NoQRYHceC0Q3fz1VxlnZOA8s01DONIpcPNRaT1RGaMWYeIHCOT/sbyTpk9sagU3A+IHwbU2dzaYGShvfuAjbAkqjaWICq+NsZ7UNdV2ROxvrFYBP0jFLpSyzQZCx0qnVWHh5uTN+8JmQ45x7EHvRuHEnuR5t5lMmqyy2VMnoROIi/JgLbojBm0xo7rbznQPIj2b8sJfUEwoSM9HSMzjxcdkEO6wUUfBxcx9BhpXlmmp/lX1MdJhAMmtpO2FEupeD0IJXlKtTq2Sl7DWDqCSl4hcJG5hEMT4s/DCHsDMAw90G6n+yVoRQaYz/QIaptHnMTIZiaaShU1SxR/G0wWKbUNEfA6TS4RJUjsRTXhGSajIbHLAYSl18YenUYqqyalfB0PDixrDpP8KzZXslFMzgAuYlB9v00WojvPBpouXbaWMJQDi0Rqj0ePdurbVqMOnY0YI7njEcGe0YVg5sToBVeEcR/E9owRYdSFL4q9PeM9MiUUiqA0kS5DpaXzcuggyfNSlSboW6QUAdBvXFAoI6vAlJMJ2GcER94iB1Rb7YcO4O5+/O/b3zx/9eKzu4+evvnih//9x69e/fNnt89+BB93f/3b7ce/VNtUYDTBU49IhSatnR2r8Qj8LCUhYVxTtsZu7HBJOzuTHXE6RvpiJwftbq992G/JfJISE3FVUkxxZ1yEcTYcq03IheSRmoknKIg9SfKTHhe4uRJlizvcFSmi8/z7BJUtXr/87PXLP98rrQ2W9Vq13d3taq3+1lYMbsO1FVzaivULNUCAH1Wt7Wq9ngMvYdBIFYDUTj3XbtTgwl1vWLU0l7upI68DLbP0TBN8YS7JKVJbtUepC+THCVM6/gRCJGWrUMgNtIt+8ZM3f3laQGnrakpxFlBOtjFiMTMZyKmPRhNjPDwZtbvGpDsWfpLxcjg1+deA9eppPBWcKghi7H3LgOIOxcyowI2oYoTnBsHOzFhAJObisOBs66hqoQdOuazlYRTGc3UiOYGMugaZZpO1EmtyjeRJe64knYy1Bq50vf375+sE9EY6WUObvn/kaajAUaQcX0ftp/969eWHr168uHv+89svf1CYQa+TPguAn0M05Yep20PK0/VmiYJOx9KYl9Z3c/VFE8VF6jikAWe2eOfKRghEa2I2+Rv1fCh5cmJpL6AvUdB7mHVvuA5s+wiZRQLoOcdQbcPs7pkSVA7P7Pqf3/7u7tef333y/M2Hf7r96I+3H3/y+uXv3zz7g4q6u6fP7376TGf55UIgdRE3WtUEGvJ9xDFENBqidhtfffALIwi5AS2HEcuM9NUHn+YmE4rK5iSbGVq6VJGiCivQvLCQM3KqpDoU5FIR1QC0RQlrpAhdxMI5dbJF3q+KqUTcScY3epNqzIgRQjf1TdhJEZwJbyqnRVRJPX7Hqtfqmqu0EVuYYpYz/aEXTqHJSBjyAWIJUpD6eoEMK9c77A9bzX4GUUoMI5dEwg3VB0paSlFSeiwZJa6WowAXGj8n9sSb0QpslZXOnEtjpn58OW+6Iv2tf6ooIFA7jiLVEAX6LX8cz6EZTp7o7ufLZ8tc/3uketV8R5yNe50iH8Y5LhTCIlsQJF+mJs1SaarHxDuPamePhGmyIfAKT51gDv1crzqtK+grI1PknW4UhdHa5JNxEtgAOmnIKGZm8RQjz1R13W52VgkhSXjph7r56R2GHeIRXu4t28ykB+HVg2Xh7MuK9tjQc7Uxy109UrNkE+Qf9IWj/L/v+crZmlEEjZV4ACz9AJ9cXEdw3y2pjdqKFBQ3QFhdv5Af0IjxJyIT6C9FOUspZ6pDfSIuXOpDjs/sxrYiAMDMz24W1ExCl6s/q4Ren/q05LXQSuK7OAnYcj5XLVyvnKeI0nJEbqDBzM0ASXH6PSgb6h2lzGzKYSGXpvLi7ZLRixkvq9g7U0xcMrWqzpTUq49ca6e6S0ijWqvB/9ip1y1rW7x86skhc1ByXXIRMzmw7M+d9v8AhZ9z2ycdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001BC8DD-D0F1-4ED5-A299-692C74D4D78A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>